--- a/doc/SRWF-8009水表功能列表.xlsx
+++ b/doc/SRWF-8009水表功能列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="365">
   <si>
     <t>查询统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,10 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;&lt;已抄/未抄列表    n/m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;&lt;已抄/未抄列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,10 +319,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回          户表信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;&lt;楼栋抄表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回                确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.按表号查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,10 +524,6 @@
   </si>
   <si>
     <t xml:space="preserve">   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应老版本的"工程调试"-&gt;"表端操作"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1392,10 +1376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表号：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;发送/重发…等待 2 s&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1416,10 +1396,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>读数：      其他：…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>清除异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1429,6 +1405,74 @@
   </si>
   <si>
     <t>使能模块上传电表数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;工程调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMA项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他：…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;版本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   桑锐8009手持机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本日期：2019-12-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信方式：RF透传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信速率：9600,E,8,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版 本 号：1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表号：0016052233</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">读数：55.60     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回            确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;&lt;已抄/未抄列表   n/m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回         户表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑锐手持机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能及界面概要设计：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1658,7 +1702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1701,6 +1745,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1941,9 +1988,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>37111</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>160812</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1958,8 +2005,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3314700" y="8334375"/>
-          <a:ext cx="571500" cy="1381125"/>
+          <a:off x="2370859" y="9283411"/>
+          <a:ext cx="659823" cy="1268310"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2623,16 +2670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>739588</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>806824</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2647,8 +2694,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1266265" y="13872882"/>
-          <a:ext cx="1546412" cy="2263591"/>
+          <a:off x="1120588" y="15094324"/>
+          <a:ext cx="1120588" cy="2207558"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2676,16 +2723,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>896471</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2700,8 +2747,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3854824" y="13076145"/>
-          <a:ext cx="359708" cy="550208"/>
+          <a:off x="2958353" y="17782616"/>
+          <a:ext cx="1536326" cy="124384"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2729,16 +2776,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>806823</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2752,9 +2799,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3765176" y="14130618"/>
-          <a:ext cx="414618" cy="100853"/>
+        <a:xfrm>
+          <a:off x="2958353" y="18489706"/>
+          <a:ext cx="1434353" cy="212912"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2782,16 +2829,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>806823</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2806,8 +2853,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3765176" y="14500412"/>
-          <a:ext cx="468406" cy="516591"/>
+          <a:off x="3025588" y="18736235"/>
+          <a:ext cx="1344706" cy="997324"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2836,15 +2883,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1247775</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1303804</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>85166</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2859,8 +2906,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9618569" y="1329018"/>
-          <a:ext cx="410696" cy="2"/>
+          <a:off x="5853392" y="18742958"/>
+          <a:ext cx="466725" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2890,14 +2937,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>133352</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2912,8 +2959,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="13338922" y="2213722"/>
-          <a:ext cx="2748803" cy="609041"/>
+          <a:off x="9865099" y="18837088"/>
+          <a:ext cx="2203636" cy="1298764"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2943,14 +2990,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2965,8 +3012,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11087100" y="964266"/>
-          <a:ext cx="779369" cy="2445124"/>
+          <a:off x="7377953" y="18445443"/>
+          <a:ext cx="1138518" cy="2498351"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2995,15 +3042,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>862853</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3017,9 +3064,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8482853" y="16447435"/>
-          <a:ext cx="902073" cy="114859"/>
+        <a:xfrm>
+          <a:off x="9256059" y="21291176"/>
+          <a:ext cx="795617" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3048,15 +3095,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>818029</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:colOff>1008529</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3070,9 +3117,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8438029" y="16786412"/>
-          <a:ext cx="971550" cy="1078566"/>
+        <a:xfrm flipV="1">
+          <a:off x="9435353" y="21324794"/>
+          <a:ext cx="2644588" cy="22412"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3101,14 +3148,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>809626</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>57152</xdr:rowOff>
+      <xdr:colOff>1075765</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3124,8 +3171,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6759950" y="16193623"/>
-          <a:ext cx="837638" cy="872936"/>
+          <a:off x="7463118" y="20988618"/>
+          <a:ext cx="761999" cy="784411"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3153,16 +3200,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1277471</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>1171575</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3177,8 +3224,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="12595972" y="2886075"/>
-          <a:ext cx="4734485" cy="2708462"/>
+          <a:off x="11564471" y="19845618"/>
+          <a:ext cx="717177" cy="347382"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3206,16 +3253,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1581150</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>83484</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1154206</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>83485</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1189505</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>94692</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3229,9 +3276,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10971679" y="18068925"/>
-          <a:ext cx="345702" cy="1"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13301382" y="20686059"/>
+          <a:ext cx="35299" cy="419662"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3260,15 +3307,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1177178</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>112620</xdr:rowOff>
+      <xdr:colOff>1266265</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>205628</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>122145</xdr:rowOff>
+      <xdr:colOff>228040</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>79003</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3282,9 +3329,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5446619" y="15072473"/>
-          <a:ext cx="395568" cy="9525"/>
+        <a:xfrm>
+          <a:off x="5815853" y="19744765"/>
+          <a:ext cx="485775" cy="562"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3313,15 +3360,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>1378324</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>98052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>142877</xdr:rowOff>
+      <xdr:colOff>273424</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>98054</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3336,8 +3383,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11430000" y="1319493"/>
-          <a:ext cx="407894" cy="2"/>
+          <a:off x="7765677" y="18755846"/>
+          <a:ext cx="475129" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3367,14 +3414,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>85166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>85168</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3389,8 +3436,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9704294" y="488576"/>
-          <a:ext cx="363071" cy="2"/>
+          <a:off x="5883088" y="17734431"/>
+          <a:ext cx="419100" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3418,16 +3465,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>66681</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3442,8 +3489,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3825128" y="12864353"/>
-          <a:ext cx="3828490" cy="817475"/>
+          <a:off x="2980765" y="17839766"/>
+          <a:ext cx="5266764" cy="257734"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3471,16 +3518,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>212911</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>104782</xdr:rowOff>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3495,8 +3542,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3844178" y="12841941"/>
-          <a:ext cx="5355851" cy="1046076"/>
+          <a:off x="2947147" y="17929412"/>
+          <a:ext cx="7093324" cy="336176"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3524,15 +3571,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>89646</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1154207</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3547,9 +3594,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1255058" y="14074589"/>
-          <a:ext cx="3283325" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="1086971" y="14097001"/>
+          <a:ext cx="3328147" cy="1322293"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3579,13 +3626,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3632,13 +3679,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1411941</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3685,13 +3732,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1344705</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3738,13 +3785,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1535204</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>179292</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3791,13 +3838,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>773206</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3844,13 +3891,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1524000</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3897,13 +3944,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>171</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3950,13 +3997,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4003,13 +4050,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>56032</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4056,13 +4103,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>941295</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1075765</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4105,13 +4152,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>963706</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>963706</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4149,13 +4196,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1165411</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>56031</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4198,13 +4245,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>403413</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4242,13 +4289,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>907676</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>268942</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4295,13 +4342,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>78439</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4348,13 +4395,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1030941</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1053353</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4401,13 +4448,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>728382</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4454,13 +4501,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>773206</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>33619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4507,13 +4554,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>930088</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4560,13 +4607,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>280146</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4613,13 +4660,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1243852</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>224117</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4666,13 +4713,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1276347</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>44822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4719,13 +4766,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1276348</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>89649</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4982,16 +5029,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>100851</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5006,8 +5053,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1266263" y="14713324"/>
-          <a:ext cx="762002" cy="0"/>
+          <a:off x="1053353" y="15923558"/>
+          <a:ext cx="369794" cy="22413"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5114,6 +5161,218 @@
         <a:xfrm>
           <a:off x="8225117" y="14186647"/>
           <a:ext cx="381000" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>829236</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>896471</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>78444</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直接箭头连接符 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2644589" y="15755471"/>
+          <a:ext cx="1445558" cy="123267"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>829235</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1288677</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="直接箭头连接符 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2644588" y="15867530"/>
+          <a:ext cx="3193677" cy="156882"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>806823</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1479176</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直接箭头连接符 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2622176" y="15957176"/>
+          <a:ext cx="5244353" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>683559</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直接箭头连接符 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1064559" y="16226118"/>
+          <a:ext cx="414617" cy="3137647"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5429,10 +5688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S227"/>
+  <dimension ref="A2:U239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="M77" sqref="M77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5440,10 +5699,10 @@
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
     <col min="3" max="3" width="4.75" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="3.875" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="4.25" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="4.125" customWidth="1"/>
@@ -5457,7 +5716,7 @@
     <col min="18" max="18" width="3.875" customWidth="1"/>
     <col min="19" max="19" width="19.875" customWidth="1"/>
     <col min="20" max="20" width="6" customWidth="1"/>
-    <col min="21" max="21" width="25.5" customWidth="1"/>
+    <col min="21" max="21" width="20.75" customWidth="1"/>
     <col min="22" max="22" width="4.5" customWidth="1"/>
     <col min="23" max="23" width="22.25" customWidth="1"/>
   </cols>
@@ -5465,7 +5724,7 @@
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
       <c r="B2" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -5488,7 +5747,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
@@ -5496,7 +5755,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
@@ -5520,7 +5779,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
@@ -5539,16 +5798,16 @@
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q12" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="S12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
@@ -5556,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
@@ -5580,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
@@ -5606,10 +5865,10 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q14" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="S14" t="s">
         <v>44</v>
@@ -5632,13 +5891,13 @@
         <v>16</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="N15">
         <v>3</v>
       </c>
       <c r="O15" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="S15" t="s">
         <v>10</v>
@@ -5646,22 +5905,22 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D16" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H16">
         <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q16" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S16" t="s">
         <v>11</v>
@@ -5669,16 +5928,16 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D17" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H17">
         <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>
@@ -5692,16 +5951,16 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
       </c>
       <c r="Q18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S18" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
@@ -5709,10 +5968,10 @@
         <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="S19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
@@ -5730,10 +5989,10 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="Q23" t="s">
+        <v>247</v>
+      </c>
+      <c r="S23" t="s">
         <v>251</v>
-      </c>
-      <c r="S23" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
@@ -5741,10 +6000,10 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D24" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H24" t="s">
         <v>9</v>
@@ -5753,16 +6012,16 @@
         <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="N24" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q24" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="S24" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
@@ -5770,28 +6029,28 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F25" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="J25" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="S25" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
@@ -5799,7 +6058,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -5808,13 +6067,13 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="J26" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -5834,13 +6093,13 @@
         <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M27" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q27" t="s">
         <v>10</v>
@@ -5848,7 +6107,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F28" s="16" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -5857,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="M28" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q28" t="s">
         <v>11</v>
@@ -5868,7 +6127,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F29" s="16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H29">
         <v>5</v>
@@ -5880,7 +6139,7 @@
         <v>12</v>
       </c>
       <c r="S29" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
@@ -5888,13 +6147,13 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M30" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q30" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
@@ -5905,12 +6164,12 @@
         <v>8</v>
       </c>
       <c r="Q31" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="M32" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.15">
@@ -5939,11 +6198,11 @@
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P39" s="3"/>
     </row>
@@ -5966,7 +6225,7 @@
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P40" s="6"/>
     </row>
@@ -6006,7 +6265,7 @@
       </c>
       <c r="N42" s="5"/>
       <c r="O42" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P42" s="6"/>
     </row>
@@ -6018,14 +6277,14 @@
         <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P43" s="6"/>
     </row>
@@ -6037,7 +6296,7 @@
         <v>25</v>
       </c>
       <c r="H44" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>42</v>
@@ -6056,7 +6315,7 @@
         <v>26</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
@@ -6066,7 +6325,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K46" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -6075,7 +6334,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K47" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
@@ -6084,15 +6343,15 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.15">
       <c r="K48" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N48" s="8"/>
       <c r="O48" s="8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P48" s="9"/>
     </row>
@@ -6113,10 +6372,10 @@
         <v>32</v>
       </c>
       <c r="J52" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L52" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
@@ -6130,25 +6389,25 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.15">
@@ -6156,31 +6415,31 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F54">
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H54">
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J54">
         <v>2</v>
       </c>
       <c r="K54" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="L54">
         <v>2</v>
       </c>
       <c r="M54" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
@@ -6194,25 +6453,25 @@
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H55">
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J55">
         <v>3</v>
       </c>
       <c r="K55" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L55">
         <v>3</v>
       </c>
       <c r="M55" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.15">
@@ -6226,19 +6485,19 @@
         <v>4</v>
       </c>
       <c r="I56" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J56">
         <v>4</v>
       </c>
       <c r="K56" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L56">
         <v>4</v>
       </c>
       <c r="M56" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.15">
@@ -6246,19 +6505,19 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J57">
         <v>5</v>
       </c>
       <c r="K57" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L57">
         <v>5</v>
       </c>
       <c r="M57" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.15">
@@ -6266,19 +6525,19 @@
         <v>6</v>
       </c>
       <c r="I58" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="J58">
         <v>6</v>
       </c>
       <c r="K58" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="L58">
         <v>6</v>
       </c>
       <c r="M58" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
@@ -6286,19 +6545,19 @@
         <v>7</v>
       </c>
       <c r="I59" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J59">
         <v>7</v>
       </c>
       <c r="K59" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L59">
         <v>7</v>
       </c>
       <c r="M59" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
@@ -6312,13 +6571,13 @@
         <v>8</v>
       </c>
       <c r="K60" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L60">
         <v>8</v>
       </c>
       <c r="M60" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
@@ -6334,16 +6593,16 @@
         <v>30</v>
       </c>
       <c r="H63" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J63" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L63" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N63" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
@@ -6357,25 +6616,25 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J64">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N64">
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
@@ -6383,31 +6642,31 @@
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H65">
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J65">
         <v>2</v>
       </c>
       <c r="K65" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L65">
         <v>2</v>
       </c>
       <c r="M65" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="N65">
         <v>2</v>
       </c>
       <c r="O65" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
@@ -6415,31 +6674,31 @@
         <v>3</v>
       </c>
       <c r="G66" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H66">
         <v>3</v>
       </c>
       <c r="I66" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J66">
         <v>3</v>
       </c>
       <c r="K66" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L66">
         <v>3</v>
       </c>
       <c r="M66" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="N66">
         <v>3</v>
       </c>
       <c r="O66" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.15">
@@ -6447,31 +6706,31 @@
         <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H67">
         <v>4</v>
       </c>
       <c r="I67" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J67">
         <v>4</v>
       </c>
       <c r="K67" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L67">
         <v>4</v>
       </c>
       <c r="M67" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N67">
         <v>4</v>
       </c>
       <c r="O67" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.15">
@@ -6485,7 +6744,7 @@
         <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J68">
         <v>5</v>
@@ -6497,13 +6756,13 @@
         <v>5</v>
       </c>
       <c r="M68" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N68">
         <v>5</v>
       </c>
       <c r="O68" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.15">
@@ -6511,7 +6770,7 @@
         <v>6</v>
       </c>
       <c r="I69" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L69">
         <v>6</v>
@@ -6542,28 +6801,28 @@
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="E75" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="E76" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="E77" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="14"/>
       <c r="B80" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
@@ -6581,1391 +6840,1633 @@
       <c r="P80" s="14"/>
       <c r="Q80" s="14"/>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83" t="s">
-        <v>36</v>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B83" s="34" t="s">
+        <v>364</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M83" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A84">
-        <v>2</v>
-      </c>
-      <c r="B84" t="s">
-        <v>340</v>
-      </c>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I84" s="10" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="M84" s="10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A85">
-        <v>3</v>
-      </c>
-      <c r="B85" t="s">
-        <v>352</v>
-      </c>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="I85" s="11"/>
       <c r="K85" s="11"/>
       <c r="M85" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="M86" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="M87" s="11"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="M88" s="12"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>363</v>
+      </c>
+      <c r="I89" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>36</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="L90" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="M90" s="33" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
+        <v>336</v>
+      </c>
+      <c r="I91" s="5"/>
+      <c r="M91" s="33" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
+        <v>346</v>
+      </c>
+      <c r="I92" s="5"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>283</v>
+      </c>
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>345</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="H94" t="s">
+        <v>32</v>
+      </c>
+      <c r="J94" t="s">
+        <v>295</v>
+      </c>
+      <c r="L94" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95" t="s">
+        <v>280</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
+        <v>287</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>337</v>
+      </c>
+      <c r="D96" s="4">
+        <v>2</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+      <c r="I96" t="s">
+        <v>281</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96" t="s">
+        <v>288</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
+      <c r="M96" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="97" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D97" s="4">
+        <v>3</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A86">
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97" t="s">
+        <v>282</v>
+      </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+      <c r="K97" t="s">
+        <v>289</v>
+      </c>
+      <c r="L97">
+        <v>3</v>
+      </c>
+      <c r="M97" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D98" s="7"/>
+      <c r="E98" s="9"/>
+      <c r="H98">
         <v>4</v>
       </c>
-      <c r="B86" t="s">
-        <v>287</v>
-      </c>
-      <c r="I86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="M86" s="12"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A87">
+      <c r="I98" t="s">
+        <v>283</v>
+      </c>
+      <c r="J98">
+        <v>4</v>
+      </c>
+      <c r="K98" t="s">
+        <v>290</v>
+      </c>
+      <c r="L98">
+        <v>4</v>
+      </c>
+      <c r="M98" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D99" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="H99">
         <v>5</v>
       </c>
-      <c r="B87" t="s">
-        <v>351</v>
-      </c>
-      <c r="I87" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="K87" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="M87" s="12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A88">
+      <c r="I99" t="s">
+        <v>284</v>
+      </c>
+      <c r="J99">
+        <v>5</v>
+      </c>
+      <c r="K99" t="s">
+        <v>291</v>
+      </c>
+      <c r="L99">
+        <v>5</v>
+      </c>
+      <c r="M99" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="H100">
         <v>6</v>
       </c>
-      <c r="B88" t="s">
+      <c r="I100" t="s">
+        <v>285</v>
+      </c>
+      <c r="J100">
+        <v>6</v>
+      </c>
+      <c r="K100" t="s">
+        <v>292</v>
+      </c>
+      <c r="L100">
+        <v>6</v>
+      </c>
+      <c r="M100" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="H101">
+        <v>7</v>
+      </c>
+      <c r="I101" t="s">
+        <v>286</v>
+      </c>
+      <c r="J101">
+        <v>7</v>
+      </c>
+      <c r="K101" t="s">
+        <v>293</v>
+      </c>
+      <c r="L101">
+        <v>7</v>
+      </c>
+      <c r="M101" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="102" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="J102">
+        <v>8</v>
+      </c>
+      <c r="K102" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="103" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="I103" s="5"/>
+    </row>
+    <row r="105" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D105" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="I105" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c r="O105" s="10"/>
+    </row>
+    <row r="106" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D106" s="1">
         <v>1</v>
       </c>
-      <c r="E88" t="s">
-        <v>131</v>
-      </c>
-      <c r="I88" s="5"/>
-      <c r="L88" s="32" t="s">
-        <v>349</v>
-      </c>
-      <c r="M88" s="33" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A89">
+      <c r="E106" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="M106" s="11"/>
+      <c r="O106" s="11"/>
+    </row>
+    <row r="107" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D107" s="4">
+        <v>2</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="M107" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O107" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D108" s="4">
+        <v>3</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="M108" s="11"/>
+      <c r="O108" s="11"/>
+    </row>
+    <row r="109" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D109" s="4">
+        <v>4</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="K109" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M109" s="12"/>
+      <c r="O109" s="12"/>
+    </row>
+    <row r="110" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D110" s="4">
+        <v>5</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B89" t="s">
-        <v>341</v>
-      </c>
-      <c r="I89" s="5"/>
-      <c r="M89" s="33" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="I90" s="5"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="I93" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="K93" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="M93" s="10"/>
-      <c r="O93" s="10"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="I94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="M94" s="11"/>
-      <c r="O94" s="11"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="I95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="M95" s="11" t="s">
+    </row>
+    <row r="111" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D111" s="4"/>
+      <c r="E111" s="6"/>
+      <c r="I111" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="3"/>
+      <c r="Q111" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="112" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D112" s="7"/>
+      <c r="E112" s="9"/>
+      <c r="I112" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q112" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D113" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="I113" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K113" s="11"/>
+      <c r="M113" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N113" s="5"/>
+      <c r="O113" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q113" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="I114" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="K114" s="12"/>
+      <c r="M114" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N114" s="5"/>
+      <c r="O114" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q114" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="I115" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="K115" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M115" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N115" s="5"/>
+      <c r="O115" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q115" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="M116" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N116" s="5"/>
+      <c r="O116" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q116" s="12"/>
+    </row>
+    <row r="117" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D117" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="I117" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N117" s="5"/>
+      <c r="O117" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D118" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="I118" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N118" s="5"/>
+      <c r="O118" s="6"/>
+    </row>
+    <row r="119" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D119" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E119" s="6"/>
+      <c r="I119" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M119" s="7"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="9"/>
+      <c r="Q119" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="120" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D120" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E120" s="6"/>
+      <c r="I120" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M120" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="O95" s="11" t="s">
+      <c r="N120" s="8"/>
+      <c r="O120" s="9"/>
+      <c r="Q120" s="10"/>
+    </row>
+    <row r="121" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D121" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E121" s="6"/>
+      <c r="I121" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q121" s="12"/>
+    </row>
+    <row r="122" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D122" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E122" s="6"/>
+      <c r="I122" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K122" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q122" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="123" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D123" s="4"/>
+      <c r="E123" s="6"/>
+      <c r="I123" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K123" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D124" s="7"/>
+      <c r="E124" s="9"/>
+    </row>
+    <row r="125" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="D125" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E125" s="9"/>
+      <c r="M125" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F96" s="1" t="s">
+      <c r="O125" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q125" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="M126" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O126" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q126" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="127" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="M127" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="O127" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q127" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="M128" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O128" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q128" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="M129" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O129" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q129" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="M130" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O130" s="12"/>
+      <c r="Q130" s="12"/>
+    </row>
+    <row r="131" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="M131" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="O131" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q131" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="O141" s="5"/>
+    </row>
+    <row r="142" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="O142" s="5"/>
+      <c r="T142" s="17"/>
+      <c r="U142" s="17"/>
+    </row>
+    <row r="143" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="T143" s="17"/>
+      <c r="U143" s="17"/>
+    </row>
+    <row r="144" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B144" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="C144" s="31"/>
+      <c r="D144" s="31"/>
+      <c r="T144" s="17"/>
+      <c r="U144" s="17"/>
+    </row>
+    <row r="145" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I146" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K146" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M146" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="O146" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q146" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I147" s="18"/>
+      <c r="K147" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M147" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="N147" s="20"/>
+      <c r="O147" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q147" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I148" s="19"/>
+      <c r="K148" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="M148" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G96" s="3"/>
-      <c r="I96" s="12"/>
-      <c r="K96" s="12"/>
-      <c r="M96" s="11"/>
-      <c r="O96" s="11"/>
-    </row>
-    <row r="97" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F97" s="1">
-        <v>1</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I97" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K97" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="M97" s="12"/>
-      <c r="O97" s="12"/>
-    </row>
-    <row r="98" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F98" s="4">
-        <v>2</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F99" s="4">
-        <v>3</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I99" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K99" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F100" s="4">
-        <v>4</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I100" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="K100" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F101" s="4">
-        <v>5</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I101" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K101" s="11"/>
-      <c r="M101" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N101" s="5"/>
-      <c r="O101" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F102" s="4"/>
-      <c r="G102" s="6"/>
-      <c r="I102" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K102" s="12"/>
-      <c r="M102" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N102" s="5"/>
-      <c r="O102" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F103" s="7"/>
-      <c r="G103" s="9"/>
-      <c r="I103" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="K103" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="M103" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N103" s="5"/>
-      <c r="O103" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q103" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="104" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="F104" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G104" s="9"/>
-      <c r="M104" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N104" s="5"/>
-      <c r="O104" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q104" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="105" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="I105" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K105" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="M105" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N105" s="5"/>
-      <c r="O105" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q105" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="106" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="I106" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="K106" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M106" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N106" s="5"/>
-      <c r="O106" s="6"/>
-      <c r="Q106" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="107" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="I107" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="K107" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="M107" s="7"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="9"/>
-      <c r="Q107" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="108" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="I108" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="K108" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M108" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="N108" s="8"/>
-      <c r="O108" s="9"/>
-      <c r="Q108" s="12"/>
-    </row>
-    <row r="109" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="I109" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K109" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="I110" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K110" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="6:17" x14ac:dyDescent="0.15">
-      <c r="I111" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="K111" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="113" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="M113" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O113" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="114" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="M114" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O114" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="M115" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="O115" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="M116" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="O116" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="M117" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O117" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="118" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="M118" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="O118" s="12"/>
-    </row>
-    <row r="119" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="M119" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="O119" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="122" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="O122" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q122" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="123" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="O123" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q123" s="10"/>
-    </row>
-    <row r="124" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="O124" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q124" s="12"/>
-    </row>
-    <row r="125" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="O125" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q125" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="126" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="O126" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="127" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="O127" s="12"/>
-    </row>
-    <row r="128" spans="13:17" x14ac:dyDescent="0.15">
-      <c r="O128" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="129" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="O129" s="5"/>
-    </row>
-    <row r="130" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="O130" s="5"/>
-    </row>
-    <row r="132" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B132" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="C132" s="31"/>
-      <c r="D132" s="31"/>
-    </row>
-    <row r="133" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="134" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="I134" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="K134" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="M134" s="18" t="s">
+      <c r="N148" s="20"/>
+      <c r="O148" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="O134" s="18" t="s">
+      <c r="Q148" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="149" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C149" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F149" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G149" s="23"/>
+      <c r="I149" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="K149" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M149" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="Q134" s="18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="135" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="I135" s="18"/>
-      <c r="K135" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="M135" s="19" t="s">
+      <c r="N149" s="20"/>
+      <c r="O149" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q149" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="150" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F150" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G150" s="23"/>
+      <c r="I150" s="19"/>
+      <c r="K150" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="M150" s="19"/>
+      <c r="O150" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="N135" s="20"/>
-      <c r="O135" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q135" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="I136" s="19"/>
-      <c r="K136" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M136" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="N136" s="20"/>
-      <c r="O136" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q136" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F137" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="G137" s="23"/>
-      <c r="I137" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K137" s="19" t="s">
+      <c r="Q150" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="151" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F151" s="24" t="s">
         <v>144</v>
-      </c>
-      <c r="M137" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="N137" s="20"/>
-      <c r="O137" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q137" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="138" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F138" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="G138" s="23"/>
-      <c r="I138" s="19"/>
-      <c r="K138" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="M138" s="19"/>
-      <c r="O138" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q138" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F139" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="G139" s="25"/>
-      <c r="I139" s="19"/>
-      <c r="K139" s="19"/>
-      <c r="M139" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="O139" s="19"/>
-      <c r="Q139" s="19"/>
-    </row>
-    <row r="140" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="I140" s="19"/>
-      <c r="K140" s="19"/>
-      <c r="M140" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="O140" s="19"/>
-      <c r="Q140" s="19"/>
-    </row>
-    <row r="141" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="I141" s="26"/>
-      <c r="K141" s="26"/>
-      <c r="M141" s="26"/>
-      <c r="O141" s="26"/>
-      <c r="Q141" s="26"/>
-    </row>
-    <row r="142" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="I142" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="K142" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="M142" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="O142" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q142" s="26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="144" spans="2:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F144" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="G144" s="23"/>
-      <c r="I144" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="145" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F145" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="G145" s="23"/>
-    </row>
-    <row r="146" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F146" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="G146" s="20"/>
-      <c r="J146" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="147" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F147" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="G147" s="20"/>
-    </row>
-    <row r="148" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F148" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G148" s="20"/>
-      <c r="I148" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="K148" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="M148" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="O148" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="149" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F149" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="G149" s="20"/>
-      <c r="I149" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="K149" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="M149" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O149" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="150" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F150" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="G150" s="20"/>
-      <c r="I150" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="K150" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="M150" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="O150" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="151" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F151" s="24" t="s">
-        <v>140</v>
       </c>
       <c r="G151" s="25"/>
       <c r="I151" s="19"/>
       <c r="K151" s="19"/>
-      <c r="M151" s="19"/>
+      <c r="M151" s="19" t="s">
+        <v>157</v>
+      </c>
       <c r="O151" s="19"/>
-    </row>
-    <row r="152" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F152" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="G152" s="25"/>
-      <c r="I152" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="K152" s="19" t="s">
-        <v>123</v>
-      </c>
+      <c r="Q151" s="19"/>
+    </row>
+    <row r="152" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I152" s="19"/>
+      <c r="K152" s="19"/>
       <c r="M152" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="O152" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="153" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="I153" s="19"/>
-      <c r="K153" s="19"/>
-      <c r="M153" s="19"/>
-      <c r="O153" s="19"/>
-    </row>
-    <row r="154" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="I154" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="K154" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="M154" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="O154" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="155" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="I155" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="K155" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="M155" s="26"/>
-      <c r="O155" s="26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="156" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="I156" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="O152" s="19"/>
+      <c r="Q152" s="19"/>
+    </row>
+    <row r="153" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I153" s="26"/>
+      <c r="K153" s="26"/>
+      <c r="M153" s="26"/>
+      <c r="O153" s="26"/>
+      <c r="Q153" s="26"/>
+    </row>
+    <row r="154" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I154" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K154" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="M154" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="O154" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q154" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="155" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="156" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F156" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G156" s="23"/>
+      <c r="I156" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="157" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F157" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="G157" s="23"/>
+    </row>
+    <row r="158" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F158" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="G158" s="20"/>
+      <c r="J158" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="159" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F159" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="G159" s="20"/>
+    </row>
+    <row r="160" spans="3:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F160" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G160" s="20"/>
+      <c r="I160" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K160" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="M160" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="O160" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="161" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F161" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G161" s="20"/>
+      <c r="I161" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="K161" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="K156" s="26" t="s">
+      <c r="M161" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="M156" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="O156" s="26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="157" spans="6:15" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J157" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="L157" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="M157" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="N157" s="17" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="158" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="I158" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="O158" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="159" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="160" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="I160" s="18" t="s">
+      <c r="O161" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F162" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="K160" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="O160" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="161" spans="9:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="I161" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="K161" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="O161" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="162" spans="9:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G162" s="20"/>
       <c r="I162" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K162" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="M162" s="19" t="s">
+        <v>103</v>
       </c>
       <c r="O162" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="163" spans="9:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="163" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F163" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G163" s="25"/>
       <c r="I163" s="19"/>
       <c r="K163" s="19"/>
+      <c r="M163" s="19"/>
       <c r="O163" s="19"/>
     </row>
-    <row r="164" spans="9:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F164" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G164" s="25"/>
       <c r="I164" s="19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K164" s="19" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="M164" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="O164" s="19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="165" spans="9:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="165" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I165" s="19"/>
       <c r="K165" s="19"/>
+      <c r="M165" s="19"/>
       <c r="O165" s="19"/>
     </row>
-    <row r="166" spans="9:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="I166" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="K166" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="M166" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="O166" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="167" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I167" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="K167" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="M167" s="26"/>
+      <c r="O167" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="168" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I168" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="K168" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="M168" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="O168" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="169" spans="6:15" s="17" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J169" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L169" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M169" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="N169" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I170" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="O170" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="171" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="172" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I172" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="K172" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="O172" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="173" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I173" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="K173" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O173" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="174" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I174" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K174" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="O174" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="175" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I175" s="19"/>
+      <c r="K175" s="19"/>
+      <c r="O175" s="19"/>
+    </row>
+    <row r="176" spans="6:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I176" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K176" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="O176" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="177" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I177" s="19"/>
+      <c r="K177" s="19"/>
+      <c r="O177" s="19"/>
+    </row>
+    <row r="178" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I178" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K178" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="O178" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="179" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I179" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="K179" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="K166" s="19" t="s">
+      <c r="O179" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="O166" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="167" spans="9:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="I167" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="K167" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="O167" s="26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="168" spans="9:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="I168" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="K168" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="O168" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="169" spans="9:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="170" spans="9:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="171" spans="9:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="172" spans="9:15" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="K172" s="27" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="173" spans="9:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="K173" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="174" spans="9:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="175" spans="9:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="176" spans="9:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="177" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="178" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B178" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="G178" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="I178" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="K178" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="M178" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="O178" s="29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="179" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B179" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D179" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="K179" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="M179" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="O179" s="29" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="180" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B180" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D180" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="K180" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="M180" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="O180" s="29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="181" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B181" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D181" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="182" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D182" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="183" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B183" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="D183" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="184" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B184" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D184" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="G184" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="I184" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="K184" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="M184" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="O184" s="29" t="s">
-        <v>183</v>
+      <c r="I180" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="K180" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="O180" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="181" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="182" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="183" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="184" spans="2:15" s="17" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="K184" s="27" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="185" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="K185" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="M185" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="O185" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="186" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="K186" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="M186" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="O186" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="186" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="187" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="188" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="189" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="190" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B190" s="17" t="s">
+        <v>193</v>
+      </c>
       <c r="G190" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I190" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="K190" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M190" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O190" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="191" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B191" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D191" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K191" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M191" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O191" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="192" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="I190" s="29" t="s">
+      <c r="D192" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="K192" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M192" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="O192" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="193" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="D193" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D194" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D195" s="29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B196" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D196" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="G196" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="I196" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="K196" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M196" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O196" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="197" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K197" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="K190" s="17" t="s">
+      <c r="M197" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="O197" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="198" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K198" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M198" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="O198" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="199" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="200" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="201" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="202" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G202" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="I202" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="K202" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M202" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="O202" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="M190" s="17" t="s">
+    </row>
+    <row r="203" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="204" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="205" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="206" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="207" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G207" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I207" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="K207" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M207" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="O207" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="208" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G208" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="K208" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M208" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="O208" s="29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="209" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G209" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="K209" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M209" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="O209" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="210" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K210" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M210" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="O210" s="29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="211" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K211" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L211" s="29"/>
+      <c r="M211" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="N211" s="29"/>
+      <c r="O211" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="212" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K212" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="M212" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="O212" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="213" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="214" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="215" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G215" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I215" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="K215" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="L215" s="29"/>
+      <c r="M215" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="N215" s="29"/>
+      <c r="O215" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="216" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G216" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="K216" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="L216" s="29"/>
+      <c r="M216" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="N216" s="29"/>
+      <c r="O216" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="217" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G217" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="K217" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M217" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="O217" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="218" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K218" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M218" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="O218" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="219" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K219" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L219" s="29"/>
+      <c r="M219" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="N219" s="29"/>
+      <c r="O219" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="220" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K220" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M220" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="O220" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="221" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="222" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="223" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="224" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="225" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="226" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="227" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B227" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="228" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B228" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D228" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G228" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="I228" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="K228" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M228" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O228" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="229" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B229" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D229" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="K229" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="L229" s="29"/>
+      <c r="M229" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="N229" s="29"/>
+      <c r="O229" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="230" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B230" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="O190" s="29" t="s">
+      <c r="D230" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="K230" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M230" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="O230" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="231" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B231" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D231" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="K231" s="17" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="191" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="192" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="193" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="194" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="195" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G195" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="I195" s="29" t="s">
+      <c r="M231" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="O231" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="232" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B232" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D232" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="K232" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="K195" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="M195" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="O195" s="29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G196" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="K196" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="M196" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="O196" s="29" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="197" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G197" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="K197" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="M197" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="O197" s="29" t="s">
+      <c r="M232" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="O232" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="233" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B233" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D233" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="234" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="235" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G235" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="I235" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="K235" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="M235" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O235" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="236" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G236" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="K236" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M236" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="O236" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="237" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K237" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M237" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="O237" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="T237"/>
+      <c r="U237"/>
+    </row>
+    <row r="238" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K238" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M238" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="O238" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="T238"/>
+      <c r="U238"/>
+    </row>
+    <row r="239" spans="2:21" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K239" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M239" s="17" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="K198" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="M198" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="O198" s="29" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="199" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="K199" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="L199" s="29"/>
-      <c r="M199" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="N199" s="29"/>
-      <c r="O199" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="200" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="K200" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="M200" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="O200" s="29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="201" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="202" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="203" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G203" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="I203" s="29" t="s">
+      <c r="O239" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="K203" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="L203" s="29"/>
-      <c r="M203" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="N203" s="29"/>
-      <c r="O203" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="204" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G204" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="K204" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="L204" s="29"/>
-      <c r="M204" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="N204" s="29"/>
-      <c r="O204" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="205" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G205" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="K205" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="M205" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="O205" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="206" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="K206" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="M206" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="O206" s="29" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="207" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="K207" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="L207" s="29"/>
-      <c r="M207" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="N207" s="29"/>
-      <c r="O207" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="208" spans="7:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="K208" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="M208" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="O208" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="209" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="210" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="211" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="212" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="213" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="214" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="215" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B215" s="17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="216" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B216" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="D216" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="G216" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="I216" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="K216" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="M216" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="O216" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="217" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B217" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="D217" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="K217" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="L217" s="29"/>
-      <c r="M217" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="N217" s="29"/>
-      <c r="O217" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="218" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B218" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="D218" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="K218" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="M218" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="O218" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="219" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B219" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="D219" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="K219" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="M219" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="O219" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="220" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B220" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="D220" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="K220" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="M220" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="O220" s="29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="221" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B221" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D221" s="29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="222" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="223" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G223" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="I223" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="K223" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="M223" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="O223" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="224" spans="2:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G224" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="K224" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="M224" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="O224" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="225" spans="11:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="K225" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="M225" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="O225" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="226" spans="11:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="K226" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="M226" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="O226" s="29" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="227" spans="11:15" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="K227" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="M227" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="O227" s="29" t="s">
-        <v>179</v>
-      </c>
+      <c r="T239"/>
+      <c r="U239"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
